--- a/price-membrane.xlsx
+++ b/price-membrane.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\OneDrive\Документы\Работа\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dolorem\Documents\Web\powerful-fusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E18E9A4-289F-4E0D-88B0-D513CCAFE5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Прайс лист PFF" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Производитель</t>
   </si>
@@ -80,12 +79,15 @@
   </si>
   <si>
     <t>под заказ</t>
+  </si>
+  <si>
+    <t>Уточняйте у представителя</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -546,23 +548,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="57.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -588,7 +590,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -601,11 +603,11 @@
       <c r="D3" s="8">
         <v>100</v>
       </c>
-      <c r="E3" s="9">
-        <v>19500</v>
+      <c r="E3" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -618,11 +620,11 @@
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="9">
-        <v>19500</v>
+      <c r="E4" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -635,11 +637,11 @@
       <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="9">
-        <v>19500</v>
+      <c r="E5" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -652,8 +654,8 @@
       <c r="D6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="8">
-        <v>19500</v>
+      <c r="E6" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
